--- a/Import_Inventory/17.คลังสินค้าสำเร็จรูป 2.xlsx
+++ b/Import_Inventory/17.คลังสินค้าสำเร็จรูป 2.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
